--- a/BalanceSheet/DHI_bal.xlsx
+++ b/BalanceSheet/DHI_bal.xlsx
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-963000000.0</v>
+        <v>14476000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-1308000000.0</v>
+        <v>13577000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-99300000.0</v>
+        <v>12237000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>84400000.0</v>
+        <v>12139000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-340700000.0</v>
+        <v>12225000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>11899200000.0</v>
@@ -2169,19 +2169,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>563500000.0</v>
+        <v>1137000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>254600000.0</v>
+        <v>846000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>152600000.0</v>
+        <v>901000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>260900000.0</v>
+        <v>761000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>58100000.0</v>
+        <v>707000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>659300000.0</v>
@@ -3067,19 +3067,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-300000.0</v>
+        <v>-143000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>2900000.0</v>
+        <v>-142000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>13100000.0</v>
+        <v>-145000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>-159000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2800000.0</v>
+        <v>-150000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>-154000000.0</v>
